--- a/Datos/Database by set/Set by name/Xlsx sets/Strixhaven Art Series (ASTX).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Strixhaven Art Series (ASTX).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A81"/>
+  <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,341 +661,348 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Jadzi, Oracle of Arcavios // Jadzi, Oracle of Arcavios</t>
+          <t>Island // Island</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Kasmina, Enigma Sage // Kasmina, Enigma Sage</t>
+          <t>Jadzi, Oracle of Arcavios // Jadzi, Oracle of Arcavios</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Kianne, Dean of Substance // Kianne, Dean of Substance</t>
+          <t>Kasmina, Enigma Sage // Kasmina, Enigma Sage</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Killian, Ink Duelist // Killian, Ink Duelist</t>
+          <t>Kianne, Dean of Substance // Kianne, Dean of Substance</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Leonin Lightscribe // Leonin Lightscribe</t>
+          <t>Killian, Ink Duelist // Killian, Ink Duelist</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Lightning Bolt // Lightning Bolt</t>
+          <t>Leonin Lightscribe // Leonin Lightscribe</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Lorehold Command // Lorehold Command</t>
+          <t>Lightning Bolt // Lightning Bolt</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Magma Opus // Magma Opus</t>
+          <t>Lorehold Command // Lorehold Command</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Make Your Mark // Make Your Mark</t>
+          <t>Magma Opus // Magma Opus</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Memory Lapse // Memory Lapse</t>
+          <t>Make Your Mark // Make Your Mark</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mila, Crafty Companion // Mila, Crafty Companion</t>
+          <t>Memory Lapse // Memory Lapse</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Negate // Negate</t>
+          <t>Mila, Crafty Companion // Mila, Crafty Companion</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Novice Dissector // Novice Dissector</t>
+          <t>Negate // Negate</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Oriq Loremage // Oriq Loremage</t>
+          <t>Novice Dissector // Novice Dissector</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Plargg, Dean of Chaos // Plargg, Dean of Chaos</t>
+          <t>Oriq Loremage // Oriq Loremage</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Primal Command // Primal Command</t>
+          <t>Plargg, Dean of Chaos // Plargg, Dean of Chaos</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Prismari Campus // Prismari Campus</t>
+          <t>Primal Command // Primal Command</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Prismari Command // Prismari Command</t>
+          <t>Prismari Campus // Prismari Campus</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Professor of Symbology // Professor of Symbology</t>
+          <t>Prismari Command // Prismari Command</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Professor of Zoomancy // Professor of Zoomancy</t>
+          <t>Professor of Symbology // Professor of Symbology</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Revel in Silence // Revel in Silence</t>
+          <t>Professor of Zoomancy // Professor of Zoomancy</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Revitalize // Revitalize</t>
+          <t>Revel in Silence // Revel in Silence</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Rise of Extus // Rise of Extus</t>
+          <t>Revitalize // Revitalize</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Rootha, Mercurial Artist // Rootha, Mercurial Artist</t>
+          <t>Rise of Extus // Rise of Extus</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Selfless Glyphweaver // Selfless Glyphweaver</t>
+          <t>Rootha, Mercurial Artist // Rootha, Mercurial Artist</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Shadewing Laureate // Shadewing Laureate</t>
+          <t>Selfless Glyphweaver // Selfless Glyphweaver</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Shadrix Silverquill // Shadrix Silverquill</t>
+          <t>Shadewing Laureate // Shadewing Laureate</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Shaile, Dean of Radiance // Shaile, Dean of Radiance</t>
+          <t>Shadrix Silverquill // Shadrix Silverquill</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sign in Blood // Sign in Blood</t>
+          <t>Shaile, Dean of Radiance // Shaile, Dean of Radiance</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Silverquill Command // Silverquill Command</t>
+          <t>Sign in Blood // Sign in Blood</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Spectacle Mage // Spectacle Mage</t>
+          <t>Silverquill Command // Silverquill Command</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Specter of the Fens // Specter of the Fens</t>
+          <t>Spectacle Mage // Spectacle Mage</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Star Pupil // Star Pupil</t>
+          <t>Specter of the Fens // Specter of the Fens</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Stone Rain // Stone Rain</t>
+          <t>Star Pupil // Star Pupil</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Storm-Kiln Artist // Storm-Kiln Artist</t>
+          <t>Stone Rain // Stone Rain</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Strategic Planning // Strategic Planning</t>
+          <t>Storm-Kiln Artist // Storm-Kiln Artist</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Tanazir Quandrix // Tanazir Quandrix</t>
+          <t>Strategic Planning // Strategic Planning</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Teach by Example // Teach by Example</t>
+          <t>Tanazir Quandrix // Tanazir Quandrix</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Tendrils of Agony // Tendrils of Agony</t>
+          <t>Teach by Example // Teach by Example</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Thrill of Possibility // Thrill of Possibility</t>
+          <t>Tendrils of Agony // Tendrils of Agony</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Time Warp // Time Warp</t>
+          <t>Thrill of Possibility // Thrill of Possibility</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Torrent Sculptor // Torrent Sculptor</t>
+          <t>Time Warp // Time Warp</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Urza's Rage // Urza's Rage</t>
+          <t>Torrent Sculptor // Torrent Sculptor</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Valentin, Dean of the Vein // Valentin, Dean of the Vein</t>
+          <t>Urza's Rage // Urza's Rage</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Velomachus Lorehold // Velomachus Lorehold</t>
+          <t>Valentin, Dean of the Vein // Valentin, Dean of the Vein</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Verdant Mastery // Verdant Mastery</t>
+          <t>Velomachus Lorehold // Velomachus Lorehold</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Vortex Runner // Vortex Runner</t>
+          <t>Verdant Mastery // Verdant Mastery</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Witherbloom Command // Witherbloom Command</t>
+          <t>Vortex Runner // Vortex Runner</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
+        <is>
+          <t>Witherbloom Command // Witherbloom Command</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>Zimone, Quandrix Prodigy // Zimone, Quandrix Prodigy</t>
         </is>
